--- a/Code/Results/Cases/Case_2_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.44416000666721</v>
+        <v>12.10198523090934</v>
       </c>
       <c r="C2">
-        <v>5.888362657080222</v>
+        <v>7.488883920792741</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.783966411348821</v>
+        <v>11.55762992625142</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.10274114047977</v>
+        <v>3.654036658571503</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.73825806697512</v>
+        <v>23.97925797717541</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.78492679144013</v>
+        <v>9.420629954122841</v>
       </c>
       <c r="L2">
-        <v>6.875553309762634</v>
+        <v>9.781905511976325</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.63715107996125</v>
+        <v>19.23471626948237</v>
       </c>
       <c r="O2">
-        <v>14.97770625994047</v>
+        <v>23.98200986033059</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.53829674993159</v>
+        <v>11.86241284342279</v>
       </c>
       <c r="C3">
-        <v>5.815414154718482</v>
+        <v>7.47051833306339</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.637797215865599</v>
+        <v>11.56279376783696</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.106810514000732</v>
+        <v>3.655585473108621</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.91605847650703</v>
+        <v>24.07491580981009</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.15282191442919</v>
+        <v>9.260327322705969</v>
       </c>
       <c r="L3">
-        <v>6.674882846931222</v>
+        <v>9.768075586360188</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.81499647360344</v>
+        <v>19.29072635974914</v>
       </c>
       <c r="O3">
-        <v>15.09116187136516</v>
+        <v>24.07226700518478</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.948713714998</v>
+        <v>11.71481957082065</v>
       </c>
       <c r="C4">
-        <v>5.770298986689053</v>
+        <v>7.459185677170469</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.551095257240132</v>
+        <v>11.56806108175095</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.109389762829485</v>
+        <v>3.656587227322757</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.0348844226643</v>
+        <v>24.1377168871862</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.743748247125005</v>
+        <v>9.161824376699574</v>
       </c>
       <c r="L4">
-        <v>6.551935713164503</v>
+        <v>9.7612382375489</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.92707432204271</v>
+        <v>19.32681670715059</v>
       </c>
       <c r="O4">
-        <v>15.17230242406258</v>
+        <v>24.13215381208198</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.72116043496685</v>
+        <v>11.65463240081571</v>
       </c>
       <c r="C5">
-        <v>5.751840095958432</v>
+        <v>7.45455445340172</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.516563625949005</v>
+        <v>11.57073553373033</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.110461482049311</v>
+        <v>3.657008256743487</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.08565134298785</v>
+        <v>24.16433160295987</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.571815125714457</v>
+        <v>9.121714442542686</v>
       </c>
       <c r="L5">
-        <v>6.50197200337138</v>
+        <v>9.758870459361017</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.9734841924436</v>
+        <v>19.34195244016689</v>
       </c>
       <c r="O5">
-        <v>15.20813920005187</v>
+        <v>24.15768094619072</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.68310237210327</v>
+        <v>11.64463830268926</v>
       </c>
       <c r="C6">
-        <v>5.748770760734661</v>
+        <v>7.453784682586273</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.510878956192983</v>
+        <v>11.57121153116125</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.110640698465079</v>
+        <v>3.657078942967969</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.09422040767833</v>
+        <v>24.16881273357428</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.542951130598656</v>
+        <v>9.115057555242359</v>
       </c>
       <c r="L6">
-        <v>6.493686067956286</v>
+        <v>9.758502635941126</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.98123541823006</v>
+        <v>19.34449163919788</v>
       </c>
       <c r="O6">
-        <v>15.21425397535971</v>
+        <v>24.16198749451809</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.94539391095249</v>
+        <v>11.71400792377589</v>
       </c>
       <c r="C7">
-        <v>5.770050333523436</v>
+        <v>7.459123270441986</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.550626268362254</v>
+        <v>11.56809501172683</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.109404132290404</v>
+        <v>3.656592853568193</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.03555969718609</v>
+        <v>24.13807168119877</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.741450621994153</v>
+        <v>9.161283248716526</v>
       </c>
       <c r="L7">
-        <v>6.551261228514744</v>
+        <v>9.761204607262354</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.92769721971849</v>
+        <v>19.32701909591334</v>
       </c>
       <c r="O7">
-        <v>15.17277465893931</v>
+        <v>24.13249353503419</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.13871918588791</v>
+        <v>12.01953236798755</v>
       </c>
       <c r="C8">
-        <v>5.863281758580642</v>
+        <v>7.482563733020182</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.732955930597152</v>
+        <v>11.55897575318466</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.104127756337698</v>
+        <v>3.654560174487234</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.79750751853075</v>
+        <v>24.01139682047815</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.57134561902067</v>
+        <v>9.365403274435755</v>
       </c>
       <c r="L8">
-        <v>6.806348914215208</v>
+        <v>9.776795194425421</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.69788237965056</v>
+        <v>19.25367643138215</v>
       </c>
       <c r="O8">
-        <v>15.01437289085287</v>
+        <v>24.0122025487876</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.21601301139686</v>
+        <v>12.61121946675051</v>
       </c>
       <c r="C9">
-        <v>6.043226608109694</v>
+        <v>7.528040611209659</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.11311295151771</v>
+        <v>11.55768949809942</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.094402704916737</v>
+        <v>3.650975223789751</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.41135314945628</v>
+        <v>23.79524937614853</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.03145598246489</v>
+        <v>9.762920780176978</v>
       </c>
       <c r="L9">
-        <v>7.305733920838825</v>
+        <v>9.820373031361376</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.26945598507185</v>
+        <v>19.12328613911651</v>
       </c>
       <c r="O9">
-        <v>14.80019378668741</v>
+        <v>23.81180737977305</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.58483811833856</v>
+        <v>13.03688270701272</v>
       </c>
       <c r="C10">
-        <v>6.173304083808228</v>
+        <v>7.561095390345357</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.404070127201448</v>
+        <v>11.56679859900699</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.087610609781871</v>
+        <v>3.64858343647336</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.18287194306007</v>
+        <v>23.65610421517572</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.00160176295269</v>
+        <v>10.05049482602392</v>
       </c>
       <c r="L10">
-        <v>7.668509251846112</v>
+        <v>9.860139613505236</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.96736462503864</v>
+        <v>19.03560236321828</v>
       </c>
       <c r="O10">
-        <v>14.70931182960763</v>
+        <v>23.6862689207723</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.1740090500517</v>
+        <v>13.22767662683619</v>
       </c>
       <c r="C11">
-        <v>6.231950672951536</v>
+        <v>7.57604274830233</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.538519720303697</v>
+        <v>11.57310799786879</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.084591246447096</v>
+        <v>3.647547391684781</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.09238119355359</v>
+        <v>23.5970708257089</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.42071087957031</v>
+        <v>10.179785293287</v>
       </c>
       <c r="L11">
-        <v>7.831992728821422</v>
+        <v>9.87986983984775</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.83248795215521</v>
+        <v>18.99745847358489</v>
       </c>
       <c r="O11">
-        <v>14.68413983054179</v>
+        <v>23.63387993383467</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.3923446936604</v>
+        <v>13.2994479826154</v>
       </c>
       <c r="C12">
-        <v>6.254078048977814</v>
+        <v>7.581688937451025</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.589697320139262</v>
+        <v>11.57580673900029</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.083457489225668</v>
+        <v>3.647162505272467</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.0601804176264</v>
+        <v>23.57532971474074</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.57623291387816</v>
+        <v>10.22848022981325</v>
       </c>
       <c r="L12">
-        <v>7.893630324543127</v>
+        <v>9.887572903645166</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.78176329103982</v>
+        <v>18.98326395923372</v>
       </c>
       <c r="O12">
-        <v>14.67708165698776</v>
+        <v>23.61472122150801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.34553359241459</v>
+        <v>13.28401306378884</v>
       </c>
       <c r="C13">
-        <v>6.24931619027619</v>
+        <v>7.580473573578847</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.578664103736427</v>
+        <v>11.57521178396281</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.083701245186281</v>
+        <v>3.647245067050125</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.06702133500049</v>
+        <v>23.57998475847367</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.54287993688563</v>
+        <v>10.21800535980087</v>
       </c>
       <c r="L13">
-        <v>7.880368275774581</v>
+        <v>9.885903677750782</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.79267243771556</v>
+        <v>18.98630991035719</v>
       </c>
       <c r="O13">
-        <v>14.67848933061132</v>
+        <v>23.61881713601884</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.19206698185473</v>
+        <v>13.23359126517174</v>
       </c>
       <c r="C14">
-        <v>6.233772751765008</v>
+        <v>7.576507552138144</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.542725033189555</v>
+        <v>11.57332383358966</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.084497781995281</v>
+        <v>3.647515577913314</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.08968981769214</v>
+        <v>23.59526987291299</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.43356954242778</v>
+        <v>10.18379700581974</v>
       </c>
       <c r="L14">
-        <v>7.837069356460392</v>
+        <v>9.880498957812</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.82830787806413</v>
+        <v>18.99628568281429</v>
       </c>
       <c r="O14">
-        <v>14.68350870608025</v>
+        <v>23.63229010242851</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.09744444306165</v>
+        <v>13.20264219852848</v>
       </c>
       <c r="C15">
-        <v>6.224241283327061</v>
+        <v>7.574076384133996</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.520744710025767</v>
+        <v>11.57220765641564</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.084986919612306</v>
+        <v>3.647682241666311</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.10384807114531</v>
+        <v>23.60471235985143</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.36619928305103</v>
+        <v>10.16280765654301</v>
       </c>
       <c r="L15">
-        <v>7.810511028998665</v>
+        <v>9.877218450014189</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.85018074049912</v>
+        <v>19.00242862605508</v>
       </c>
       <c r="O15">
-        <v>14.68690986441876</v>
+        <v>23.64063125856359</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.54566415796904</v>
+        <v>13.02435064842523</v>
       </c>
       <c r="C16">
-        <v>6.169460344510713</v>
+        <v>7.560116644215166</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.395322472232863</v>
+        <v>11.56642968489458</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.087809305634839</v>
+        <v>3.648652187633942</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.18906742973694</v>
+        <v>23.66004802504771</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.97376561826861</v>
+        <v>10.04201075753208</v>
       </c>
       <c r="L16">
-        <v>7.657789906452053</v>
+        <v>9.858882848420398</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.97622901794954</v>
+        <v>19.03813016018283</v>
       </c>
       <c r="O16">
-        <v>14.71129489591758</v>
+        <v>23.68978773228058</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.19861531785599</v>
+        <v>12.91419582198806</v>
       </c>
       <c r="C17">
-        <v>6.135715322610543</v>
+        <v>7.551529046803204</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.318889303991128</v>
+        <v>11.56343846757429</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.089558422053244</v>
+        <v>3.649260509265596</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.24488220232539</v>
+        <v>23.69508711461312</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.72733512030954</v>
+        <v>9.967481770703424</v>
       </c>
       <c r="L17">
-        <v>7.563668821677365</v>
+        <v>9.848051737529783</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.0541965132039</v>
+        <v>19.06047781833442</v>
       </c>
       <c r="O17">
-        <v>14.73050060706988</v>
+        <v>23.72115320687019</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.99584448794796</v>
+        <v>12.85057402745505</v>
       </c>
       <c r="C18">
-        <v>6.116256801942685</v>
+        <v>7.546581342515525</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.275125924049872</v>
+        <v>11.56192196492459</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.090571125774252</v>
+        <v>3.649615295516424</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.27824255933537</v>
+        <v>23.71564203985253</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.58350291484255</v>
+        <v>9.924473352900183</v>
       </c>
       <c r="L18">
-        <v>7.509389948992956</v>
+        <v>9.841976621379766</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.09928199764127</v>
+        <v>19.073495804575</v>
       </c>
       <c r="O18">
-        <v>14.74306015470411</v>
+        <v>23.73963790593386</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.92664599459709</v>
+        <v>12.82898968253942</v>
       </c>
       <c r="C19">
-        <v>6.109660186655763</v>
+        <v>7.544904737674997</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.260343703831559</v>
+        <v>11.56144358912582</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.090915168565015</v>
+        <v>3.649736261964572</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.28974983126679</v>
+        <v>23.72267051008961</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.53444433083287</v>
+        <v>9.909888570142572</v>
       </c>
       <c r="L19">
-        <v>7.490989065860313</v>
+        <v>9.839946377037995</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.11458897628419</v>
+        <v>19.07793170464935</v>
       </c>
       <c r="O19">
-        <v>14.74756797955258</v>
+        <v>23.74597274486536</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.23588570047104</v>
+        <v>12.92594979451527</v>
       </c>
       <c r="C20">
-        <v>6.13931267734842</v>
+        <v>7.552444083529567</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.327005423187511</v>
+        <v>11.56373579112538</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.089371540146371</v>
+        <v>3.649195245953195</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.23880957990986</v>
+        <v>23.69131560136337</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.75378452315039</v>
+        <v>9.97543046546058</v>
       </c>
       <c r="L20">
-        <v>7.573703328657184</v>
+        <v>9.84918875148459</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.04587194844417</v>
+        <v>19.05808188487935</v>
       </c>
       <c r="O20">
-        <v>14.72829847855456</v>
+        <v>23.71776832592293</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.23727292446256</v>
+        <v>13.24841487915663</v>
       </c>
       <c r="C21">
-        <v>6.238340466756057</v>
+        <v>7.577672859650783</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.553274311820676</v>
+        <v>11.5738699866559</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.084263563237798</v>
+        <v>3.647435920639188</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.08297436093009</v>
+        <v>23.59076360985584</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.46576301014782</v>
+        <v>10.1938523545829</v>
       </c>
       <c r="L21">
-        <v>7.849794980137219</v>
+        <v>9.882080202781843</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.81783151027406</v>
+        <v>18.99334878659452</v>
       </c>
       <c r="O21">
-        <v>14.68196605126283</v>
+        <v>23.6283143043739</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.86395405315488</v>
+        <v>13.45634816273916</v>
       </c>
       <c r="C22">
-        <v>6.30258799185565</v>
+        <v>7.594078865026837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.702680223639462</v>
+        <v>11.58229628696995</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.080980961334943</v>
+        <v>3.646329457191408</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.99323775147593</v>
+        <v>23.52862349965166</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.91252242645781</v>
+        <v>10.33504244343564</v>
       </c>
       <c r="L22">
-        <v>8.028644747716896</v>
+        <v>9.904924804261523</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.67082743998617</v>
+        <v>18.95249722719586</v>
       </c>
       <c r="O22">
-        <v>14.66617624822338</v>
+        <v>23.57381425586012</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.53200832818799</v>
+        <v>13.34564978669719</v>
       </c>
       <c r="C23">
-        <v>6.2683426351496</v>
+        <v>7.585330611996254</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.622811303729931</v>
+        <v>11.57763472080381</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.08272802302956</v>
+        <v>3.646916041847775</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.03997763254156</v>
+        <v>23.56146148497688</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.67577240665223</v>
+        <v>10.25984371012427</v>
       </c>
       <c r="L23">
-        <v>7.93334923197808</v>
+        <v>9.892610310161405</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.74910560057518</v>
+        <v>18.97416765087739</v>
       </c>
       <c r="O23">
-        <v>14.67322767381043</v>
+        <v>23.60253889764447</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.21904588042855</v>
+        <v>12.92063672870796</v>
       </c>
       <c r="C24">
-        <v>6.137686493709618</v>
+        <v>7.552030428299616</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.323335565164101</v>
+        <v>11.56360073810734</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.089456007261177</v>
+        <v>3.649224735751236</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.24155106136316</v>
+        <v>23.69301942388926</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.7418334642995</v>
+        <v>9.971837357701695</v>
       </c>
       <c r="L24">
-        <v>7.569167245785005</v>
+        <v>9.848674234218931</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.04963467022453</v>
+        <v>19.05916455671003</v>
       </c>
       <c r="O24">
-        <v>14.72928934406421</v>
+        <v>23.71929722189968</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.6818933831933</v>
+        <v>12.45242804478268</v>
       </c>
       <c r="C25">
-        <v>5.994895497353298</v>
+        <v>7.515796336961634</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.008069173773013</v>
+        <v>11.55626642703144</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.096969642428174</v>
+        <v>3.651902360141426</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.50658590568245</v>
+        <v>23.85027023445797</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.65446512467974</v>
+        <v>9.655972182684518</v>
       </c>
       <c r="L25">
-        <v>7.171119227321543</v>
+        <v>9.807209124916376</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.38306553467508</v>
+        <v>19.15712982529935</v>
       </c>
       <c r="O25">
-        <v>14.84703423930149</v>
+        <v>23.8622141122296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.10198523090934</v>
+        <v>13.44416000666733</v>
       </c>
       <c r="C2">
-        <v>7.488883920792741</v>
+        <v>5.888362657080202</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.55762992625142</v>
+        <v>7.783966411348708</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.654036658571503</v>
+        <v>2.10274114047977</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.97925797717541</v>
+        <v>14.73825806697467</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.420629954122841</v>
+        <v>10.78492679144025</v>
       </c>
       <c r="L2">
-        <v>9.781905511976325</v>
+        <v>6.875553309762641</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.23471626948237</v>
+        <v>12.63715107996108</v>
       </c>
       <c r="O2">
-        <v>23.98200986033059</v>
+        <v>14.97770625994008</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.86241284342279</v>
+        <v>12.53829674993162</v>
       </c>
       <c r="C3">
-        <v>7.47051833306339</v>
+        <v>5.815414154718464</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.56279376783696</v>
+        <v>7.637797215865515</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.655585473108621</v>
+        <v>2.106810514000599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.07491580981009</v>
+        <v>14.91605847650701</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.260327322705969</v>
+        <v>10.15282191442919</v>
       </c>
       <c r="L3">
-        <v>9.768075586360188</v>
+        <v>6.674882846931135</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.29072635974914</v>
+        <v>12.81499647360337</v>
       </c>
       <c r="O3">
-        <v>24.07226700518478</v>
+        <v>15.09116187136511</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.71481957082065</v>
+        <v>11.94871371499804</v>
       </c>
       <c r="C4">
-        <v>7.459185677170469</v>
+        <v>5.770298986688925</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.56806108175095</v>
+        <v>7.551095257239987</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.656587227322757</v>
+        <v>2.109389762829486</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.1377168871862</v>
+        <v>15.03488442266405</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.161824376699574</v>
+        <v>9.743748247125017</v>
       </c>
       <c r="L4">
-        <v>9.7612382375489</v>
+        <v>6.551935713164461</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.32681670715059</v>
+        <v>12.92707432204261</v>
       </c>
       <c r="O4">
-        <v>24.13215381208198</v>
+        <v>15.1723024240624</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65463240081571</v>
+        <v>11.72116043496681</v>
       </c>
       <c r="C5">
-        <v>7.45455445340172</v>
+        <v>5.751840095958425</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.57073553373033</v>
+        <v>7.516563625949063</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.657008256743487</v>
+        <v>2.110461482049311</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.16433160295987</v>
+        <v>15.08565134298776</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.121714442542686</v>
+        <v>9.571815125714506</v>
       </c>
       <c r="L5">
-        <v>9.758870459361017</v>
+        <v>6.501972003371399</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.34195244016689</v>
+        <v>12.9734841924436</v>
       </c>
       <c r="O5">
-        <v>24.15768094619072</v>
+        <v>15.20813920005179</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64463830268926</v>
+        <v>11.68310237210326</v>
       </c>
       <c r="C6">
-        <v>7.453784682586273</v>
+        <v>5.74877076073453</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.57121153116125</v>
+        <v>7.510878956192983</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.657078942967969</v>
+        <v>2.110640698464946</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.16881273357428</v>
+        <v>15.09422040767837</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.115057555242359</v>
+        <v>9.542951130598661</v>
       </c>
       <c r="L6">
-        <v>9.758502635941126</v>
+        <v>6.493686067956276</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.34449163919788</v>
+        <v>12.98123541823009</v>
       </c>
       <c r="O6">
-        <v>24.16198749451809</v>
+        <v>15.21425397535975</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71400792377589</v>
+        <v>11.94539391095246</v>
       </c>
       <c r="C7">
-        <v>7.459123270441986</v>
+        <v>5.770050333523554</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.56809501172683</v>
+        <v>7.550626268362352</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.656592853568193</v>
+        <v>2.109404132290807</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.13807168119877</v>
+        <v>15.03555969718627</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.161283248716526</v>
+        <v>9.741450621994115</v>
       </c>
       <c r="L7">
-        <v>9.761204607262354</v>
+        <v>6.551261228514761</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.32701909591334</v>
+        <v>12.92769721971856</v>
       </c>
       <c r="O7">
-        <v>24.13249353503419</v>
+        <v>15.17277465893945</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.01953236798755</v>
+        <v>13.13871918588797</v>
       </c>
       <c r="C8">
-        <v>7.482563733020182</v>
+        <v>5.863281758580627</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.55897575318466</v>
+        <v>7.732955930597154</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.654560174487234</v>
+        <v>2.104127756338101</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.01139682047815</v>
+        <v>14.79750751853078</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.365403274435755</v>
+        <v>10.5713456190207</v>
       </c>
       <c r="L8">
-        <v>9.776795194425421</v>
+        <v>6.806348914215185</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.25367643138215</v>
+        <v>12.69788237965063</v>
       </c>
       <c r="O8">
-        <v>24.0122025487876</v>
+        <v>15.0143728908529</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.61121946675051</v>
+        <v>15.21601301139681</v>
       </c>
       <c r="C9">
-        <v>7.528040611209659</v>
+        <v>6.043226608109552</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.55768949809942</v>
+        <v>8.113112951517717</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.650975223789751</v>
+        <v>2.094402704916736</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.79524937614853</v>
+        <v>14.41135314945629</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.762920780176978</v>
+        <v>12.0314559824648</v>
       </c>
       <c r="L9">
-        <v>9.820373031361376</v>
+        <v>7.305733920838831</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.12328613911651</v>
+        <v>12.26945598507182</v>
       </c>
       <c r="O9">
-        <v>23.81180737977305</v>
+        <v>14.80019378668743</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.03688270701272</v>
+        <v>16.5848381183386</v>
       </c>
       <c r="C10">
-        <v>7.561095390345357</v>
+        <v>6.173304083808483</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.56679859900699</v>
+        <v>8.404070127201503</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.64858343647336</v>
+        <v>2.087610609781871</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.65610421517572</v>
+        <v>14.18287194305996</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.05049482602392</v>
+        <v>13.00160176295274</v>
       </c>
       <c r="L10">
-        <v>9.860139613505236</v>
+        <v>7.668509251846173</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.03560236321828</v>
+        <v>11.96736462503858</v>
       </c>
       <c r="O10">
-        <v>23.6862689207723</v>
+        <v>14.70931182960747</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.22767662683619</v>
+        <v>17.17400905005169</v>
       </c>
       <c r="C11">
-        <v>7.57604274830233</v>
+        <v>6.23195067295141</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.57310799786879</v>
+        <v>8.538519720303766</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.647547391684781</v>
+        <v>2.084591246447097</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.5970708257089</v>
+        <v>14.09238119355367</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.179785293287</v>
+        <v>13.42071087957031</v>
       </c>
       <c r="L11">
-        <v>9.87986983984775</v>
+        <v>7.831992728821424</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.99745847358489</v>
+        <v>11.83248795215531</v>
       </c>
       <c r="O11">
-        <v>23.63387993383467</v>
+        <v>14.68413983054185</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.2994479826154</v>
+        <v>17.39234469366035</v>
       </c>
       <c r="C12">
-        <v>7.581688937451025</v>
+        <v>6.254078048977932</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.57580673900029</v>
+        <v>8.589697320139273</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.647162505272467</v>
+        <v>2.083457489225534</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.57532971474074</v>
+        <v>14.0601804176265</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.22848022981325</v>
+        <v>13.57623291387814</v>
       </c>
       <c r="L12">
-        <v>9.887572903645166</v>
+        <v>7.893630324543093</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.98326395923372</v>
+        <v>11.78176329103982</v>
       </c>
       <c r="O12">
-        <v>23.61472122150801</v>
+        <v>14.67708165698783</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.28401306378884</v>
+        <v>17.34553359241464</v>
       </c>
       <c r="C13">
-        <v>7.580473573578847</v>
+        <v>6.249316190276182</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.57521178396281</v>
+        <v>8.57866410373639</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.647245067050125</v>
+        <v>2.083701245186413</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.57998475847367</v>
+        <v>14.06702133500045</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.21800535980087</v>
+        <v>13.54287993688569</v>
       </c>
       <c r="L13">
-        <v>9.885903677750782</v>
+        <v>7.880368275774529</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.98630991035719</v>
+        <v>11.79267243771562</v>
       </c>
       <c r="O13">
-        <v>23.61881713601884</v>
+        <v>14.67848933061126</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.23359126517174</v>
+        <v>17.1920669818547</v>
       </c>
       <c r="C14">
-        <v>7.576507552138144</v>
+        <v>6.233772751765504</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.57332383358966</v>
+        <v>8.542725033189633</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.647515577913314</v>
+        <v>2.08449778199528</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.59526987291299</v>
+        <v>14.08968981769219</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.18379700581974</v>
+        <v>13.43356954242782</v>
       </c>
       <c r="L14">
-        <v>9.880498957812</v>
+        <v>7.837069356460344</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.99628568281429</v>
+        <v>11.82830787806413</v>
       </c>
       <c r="O14">
-        <v>23.63229010242851</v>
+        <v>14.68350870608018</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.20264219852848</v>
+        <v>17.0974444430617</v>
       </c>
       <c r="C15">
-        <v>7.574076384133996</v>
+        <v>6.224241283326926</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.57220765641564</v>
+        <v>8.520744710025758</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.647682241666311</v>
+        <v>2.084986919612574</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.60471235985143</v>
+        <v>14.10384807114515</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.16280765654301</v>
+        <v>13.36619928305106</v>
       </c>
       <c r="L15">
-        <v>9.877218450014189</v>
+        <v>7.810511028998655</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.00242862605508</v>
+        <v>11.85018074049906</v>
       </c>
       <c r="O15">
-        <v>23.64063125856359</v>
+        <v>14.6869098644186</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.02435064842523</v>
+        <v>16.54566415796909</v>
       </c>
       <c r="C16">
-        <v>7.560116644215166</v>
+        <v>6.169460344510594</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.56642968489458</v>
+        <v>8.395322472232838</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.648652187633942</v>
+        <v>2.08780930563457</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.66004802504771</v>
+        <v>14.18906742973682</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.04201075753208</v>
+        <v>12.97376561826866</v>
       </c>
       <c r="L16">
-        <v>9.858882848420398</v>
+        <v>7.657789906452058</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.03813016018283</v>
+        <v>11.97622901794951</v>
       </c>
       <c r="O16">
-        <v>23.68978773228058</v>
+        <v>14.71129489591747</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91419582198806</v>
+        <v>16.19861531785599</v>
       </c>
       <c r="C17">
-        <v>7.551529046803204</v>
+        <v>6.135715322610551</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.56343846757429</v>
+        <v>8.318889303991172</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.649260509265596</v>
+        <v>2.089558422053109</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.69508711461312</v>
+        <v>14.2448822023254</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.967481770703424</v>
+        <v>12.7273351203096</v>
       </c>
       <c r="L17">
-        <v>9.848051737529783</v>
+        <v>7.563668821677324</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.06047781833442</v>
+        <v>12.05419651320386</v>
       </c>
       <c r="O17">
-        <v>23.72115320687019</v>
+        <v>14.73050060706985</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.85057402745505</v>
+        <v>15.995844487948</v>
       </c>
       <c r="C18">
-        <v>7.546581342515525</v>
+        <v>6.116256801942438</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.56192196492459</v>
+        <v>8.275125924049853</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.649615295516424</v>
+        <v>2.090571125773851</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.71564203985253</v>
+        <v>14.27824255933534</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.924473352900183</v>
+        <v>12.58350291484255</v>
       </c>
       <c r="L18">
-        <v>9.841976621379766</v>
+        <v>7.509389948992941</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.073495804575</v>
+        <v>12.09928199764123</v>
       </c>
       <c r="O18">
-        <v>23.73963790593386</v>
+        <v>14.74306015470411</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.82898968253942</v>
+        <v>15.92664599459717</v>
       </c>
       <c r="C19">
-        <v>7.544904737674997</v>
+        <v>6.109660186655636</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.56144358912582</v>
+        <v>8.260343703831474</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.649736261964572</v>
+        <v>2.090915168564882</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.72267051008961</v>
+        <v>14.28974983126685</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.909888570142572</v>
+        <v>12.5344443308329</v>
       </c>
       <c r="L19">
-        <v>9.839946377037995</v>
+        <v>7.490989065860293</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.07793170464935</v>
+        <v>12.1145889762843</v>
       </c>
       <c r="O19">
-        <v>23.74597274486536</v>
+        <v>14.7475679795527</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.92594979451527</v>
+        <v>16.23588570047107</v>
       </c>
       <c r="C20">
-        <v>7.552444083529567</v>
+        <v>6.139312677348419</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.56373579112538</v>
+        <v>8.327005423187543</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.649195245953195</v>
+        <v>2.089371540146371</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.69131560136337</v>
+        <v>14.23880957990986</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.97543046546058</v>
+        <v>12.7537845231504</v>
       </c>
       <c r="L20">
-        <v>9.84918875148459</v>
+        <v>7.573703328657193</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.05808188487935</v>
+        <v>12.04587194844417</v>
       </c>
       <c r="O20">
-        <v>23.71776832592293</v>
+        <v>14.72829847855456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.24841487915663</v>
+        <v>17.23727292446259</v>
       </c>
       <c r="C21">
-        <v>7.577672859650783</v>
+        <v>6.238340466755914</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.5738699866559</v>
+        <v>8.553274311820747</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.647435920639188</v>
+        <v>2.084263563237529</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.59076360985584</v>
+        <v>14.08297436093005</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.1938523545829</v>
+        <v>13.46576301014782</v>
       </c>
       <c r="L21">
-        <v>9.882080202781843</v>
+        <v>7.849794980137284</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.99334878659452</v>
+        <v>11.81783151027402</v>
       </c>
       <c r="O21">
-        <v>23.6283143043739</v>
+        <v>14.68196605126281</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.45634816273916</v>
+        <v>17.86395405315495</v>
       </c>
       <c r="C22">
-        <v>7.594078865026837</v>
+        <v>6.302587991855633</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.58229628696995</v>
+        <v>8.702680223639453</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.646329457191408</v>
+        <v>2.080980961334943</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.52862349965166</v>
+        <v>13.99323775147575</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.33504244343564</v>
+        <v>13.91252242645787</v>
       </c>
       <c r="L22">
-        <v>9.904924804261523</v>
+        <v>8.028644747716877</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.95249722719586</v>
+        <v>11.67082743998603</v>
       </c>
       <c r="O22">
-        <v>23.57381425586012</v>
+        <v>14.66617624822322</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.34564978669719</v>
+        <v>17.53200832818801</v>
       </c>
       <c r="C23">
-        <v>7.585330611996254</v>
+        <v>6.268342635149583</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.57763472080381</v>
+        <v>8.622811303729907</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.646916041847775</v>
+        <v>2.082728023029426</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.56146148497688</v>
+        <v>14.03997763254162</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.25984371012427</v>
+        <v>13.67577240665224</v>
       </c>
       <c r="L23">
-        <v>9.892610310161405</v>
+        <v>7.933349231978067</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.97416765087739</v>
+        <v>11.74910560057521</v>
       </c>
       <c r="O23">
-        <v>23.60253889764447</v>
+        <v>14.67322767381048</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.92063672870796</v>
+        <v>16.21904588042864</v>
       </c>
       <c r="C24">
-        <v>7.552030428299616</v>
+        <v>6.13768649370961</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.56360073810734</v>
+        <v>8.323335565164108</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.649224735751236</v>
+        <v>2.089456007261177</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.69301942388926</v>
+        <v>14.24155106136301</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.971837357701695</v>
+        <v>12.74183346429958</v>
       </c>
       <c r="L24">
-        <v>9.848674234218931</v>
+        <v>7.569167245785014</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.05916455671003</v>
+        <v>12.0496346702245</v>
       </c>
       <c r="O24">
-        <v>23.71929722189968</v>
+        <v>14.72928934406403</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.45242804478268</v>
+        <v>14.68189338319332</v>
       </c>
       <c r="C25">
-        <v>7.515796336961634</v>
+        <v>5.994895497353163</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.55626642703144</v>
+        <v>8.008069173773029</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.651902360141426</v>
+        <v>2.096969642428041</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.85027023445797</v>
+        <v>14.5065859056824</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.655972182684518</v>
+        <v>11.65446512467973</v>
       </c>
       <c r="L25">
-        <v>9.807209124916376</v>
+        <v>7.171119227321568</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.15712982529935</v>
+        <v>12.38306553467508</v>
       </c>
       <c r="O25">
-        <v>23.8622141122296</v>
+        <v>14.84703423930149</v>
       </c>
     </row>
   </sheetData>
